--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001887</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>中欧价值智选回报混合E</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>92.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.72</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>005770</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>94.06</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>54.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>24.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.14</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005770</t>
+          <t>009859</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
+          <t>银华乐享混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信灵活配置混合</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>38.99</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009859</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华乐享混合</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.64</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512190</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.02</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>59.32</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>512190</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>建信灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>91.12</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2.33</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>56.92</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2303,4 +2304,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2816,4 +2817,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4579</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3405,4 +3406,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3414,7 +3415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,17 +3426,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3445,14 +3466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.21</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3461,14 +3504,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.13</v>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3477,14 +3542,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.289999999999999</v>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3493,13 +3580,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7964</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4649,7 +4650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4660,17 +4661,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4680,14 +4701,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.69</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4696,14 +4739,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.21</v>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4712,14 +4777,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.13</v>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4728,14 +4815,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.289999999999999</v>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4744,13 +4853,1115 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5844,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5855,17 +5856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5875,14 +5896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.44</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5687</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5891,14 +5934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.69</v>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5907,14 +5972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.21</v>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1672</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5923,14 +6010,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.13</v>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5939,14 +6048,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.289999999999999</v>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5955,13 +6086,753 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>11.4</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>13.44</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>14.69</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>7.21</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>11.13</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>8.289999999999999</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.48</v>
       </c>
     </row>
@@ -600,6 +617,1806 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6698</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4334</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3897</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011359</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011360</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2647,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3881,7 +5698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4469,7 +6286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4981,7 +6798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6101,7 +7918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002318-久立特材.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>12.57</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>13.44</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>14.69</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>7.21</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>11.13</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>8.289999999999999</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.289999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5628</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,2076 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001745</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞富灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001746</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞富灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009689</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011359</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009690</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011360</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2416,7 +5243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3270,7 +6097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4464,7 +7291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5698,7 +8525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6286,7 +9113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6798,7 +9625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7916,744 +10743,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5628</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5327</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5327</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1961</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1873</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1723</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0969</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0577</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>54.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>